--- a/useful stuff/Testcases.xlsx
+++ b/useful stuff/Testcases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/402922083949ca98/Imperial/Y2_Term 1_2021-2022/Instruction Architecture and Compilers/Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Floro\Documents\GitHub\MIPS-CPU\useful stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1290" documentId="8_{34B2F3A4-241C-4223-93B0-01E82A0317BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76DD605B-1BBF-4B81-AB06-D73B7B65B5A2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABDF717-E311-4BA4-A0F2-8C636295BC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="4340" windowWidth="19200" windowHeight="10060" xr2:uid="{56A8E61F-068C-4D18-B712-3333C0E957D7}"/>
+    <workbookView xWindow="14640" yWindow="2280" windowWidth="19200" windowHeight="10060" xr2:uid="{56A8E61F-068C-4D18-B712-3333C0E957D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4946" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4947" uniqueCount="336">
   <si>
     <t>opcode</t>
   </si>
@@ -1039,6 +1039,9 @@
   </si>
   <si>
     <t>store 0xf0f0 at word address 24</t>
+  </si>
+  <si>
+    <t>assert (v0==35) else $fatal(1,"addiu failed")</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ED3568-0F05-4937-8607-6989EFDB295E}">
   <dimension ref="A2:V846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L671" sqref="L671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1612,6 +1615,9 @@
       <c r="K10">
         <v>12</v>
       </c>
+      <c r="L10" s="3" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D11" s="3"/>
@@ -17302,6 +17308,7 @@
       <c r="K671">
         <v>12</v>
       </c>
+      <c r="L671" s="3"/>
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D672" s="2"/>

--- a/useful stuff/Testcases.xlsx
+++ b/useful stuff/Testcases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Floro\Documents\GitHub\MIPS-CPU\useful stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/402922083949ca98/Imperial/Y2_Term 1_2021-2022/Instruction Architecture and Compilers/Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABDF717-E311-4BA4-A0F2-8C636295BC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1536" documentId="8_{34B2F3A4-241C-4223-93B0-01E82A0317BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{138C9BDA-1E4B-44F1-BEB7-D33ACD8DD9FB}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="2280" windowWidth="19200" windowHeight="10060" xr2:uid="{56A8E61F-068C-4D18-B712-3333C0E957D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{56A8E61F-068C-4D18-B712-3333C0E957D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4947" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5700" uniqueCount="431">
   <si>
     <t>opcode</t>
   </si>
@@ -1041,7 +1041,292 @@
     <t>store 0xf0f0 at word address 24</t>
   </si>
   <si>
-    <t>assert (v0==35) else $fatal(1,"addiu failed")</t>
+    <t>assert v0=35</t>
+  </si>
+  <si>
+    <t>assert v0=30</t>
+  </si>
+  <si>
+    <t>assert v0=41</t>
+  </si>
+  <si>
+    <t>assert v0=21</t>
+  </si>
+  <si>
+    <t>assertv0=115</t>
+  </si>
+  <si>
+    <t>assert v0=211</t>
+  </si>
+  <si>
+    <t>assert v0=0000ff00</t>
+  </si>
+  <si>
+    <t>assert v0=0x00000f00</t>
+  </si>
+  <si>
+    <t>assert v0=0x00000f0f</t>
+  </si>
+  <si>
+    <t>assert 0x00000000</t>
+  </si>
+  <si>
+    <t>assert v0=0xffff0000</t>
+  </si>
+  <si>
+    <t>assert v0=3</t>
+  </si>
+  <si>
+    <t>assert v0=-7</t>
+  </si>
+  <si>
+    <t>assert v0=11</t>
+  </si>
+  <si>
+    <t>assert v0=0</t>
+  </si>
+  <si>
+    <t>not sure about this one</t>
+  </si>
+  <si>
+    <t>assert v0=0xBFC00010</t>
+  </si>
+  <si>
+    <t>assert v0=0xBFC0000C</t>
+  </si>
+  <si>
+    <t>assert v0=0xBFC00018</t>
+  </si>
+  <si>
+    <t>assert v0=0xffffffaa</t>
+  </si>
+  <si>
+    <t>assert v0=0x00000011</t>
+  </si>
+  <si>
+    <t>assert v0=0xffffffcc</t>
+  </si>
+  <si>
+    <t>assert v0=0x00000022</t>
+  </si>
+  <si>
+    <t>assert v0=0x000000aa</t>
+  </si>
+  <si>
+    <t>assert v0=0x000000cc</t>
+  </si>
+  <si>
+    <t>assert v0=0xffffaa11</t>
+  </si>
+  <si>
+    <t>assert v0=0x000022cc</t>
+  </si>
+  <si>
+    <t>assert v0=0x0000aa11</t>
+  </si>
+  <si>
+    <t>assert v0=0xBFC0000</t>
+  </si>
+  <si>
+    <t>assert v0=0xF5650000</t>
+  </si>
+  <si>
+    <t>assert v0=0xFFFF0000</t>
+  </si>
+  <si>
+    <t>assert v0=0x56aa3cd0</t>
+  </si>
+  <si>
+    <t>assert v0=0x0000000A</t>
+  </si>
+  <si>
+    <t>assert v0=0x00000001</t>
+  </si>
+  <si>
+    <t>assert v0=0xffffff00</t>
+  </si>
+  <si>
+    <t>assert v0=0xff000000</t>
+  </si>
+  <si>
+    <t>assert v0=0x000000ff</t>
+  </si>
+  <si>
+    <t>assert v0=0x0000ffff</t>
+  </si>
+  <si>
+    <t>assert v0=0x00ffffff</t>
+  </si>
+  <si>
+    <t>assert v0=0xff00ff00</t>
+  </si>
+  <si>
+    <t>assert v0=24</t>
+  </si>
+  <si>
+    <t>assert v0=225</t>
+  </si>
+  <si>
+    <t>assert v0=0xfffffff8</t>
+  </si>
+  <si>
+    <t>assert v0=0xffff00ff</t>
+  </si>
+  <si>
+    <t>assert v0=0x00ff00ff</t>
+  </si>
+  <si>
+    <t>assert mem[12]=0xf3000000</t>
+  </si>
+  <si>
+    <t>assert mem[12]=0x00f30000</t>
+  </si>
+  <si>
+    <t>assert mem[12]=0x0000f300</t>
+  </si>
+  <si>
+    <t>assert mem[12]=0x000000f3</t>
+  </si>
+  <si>
+    <t>assert mem[12]=0xa3f30000</t>
+  </si>
+  <si>
+    <t>assert mem[12]=0x0000a3f3</t>
+  </si>
+  <si>
+    <t>assert v0=0x000000f0</t>
+  </si>
+  <si>
+    <t>assert v0=0000003C</t>
+  </si>
+  <si>
+    <t>assert v0=1</t>
+  </si>
+  <si>
+    <t>29228002</t>
+  </si>
+  <si>
+    <t>sltu</t>
+  </si>
+  <si>
+    <t>assert v0=0xfff00000</t>
+  </si>
+  <si>
+    <t>assert v0=0xfc000000</t>
+  </si>
+  <si>
+    <t>sra $v0, $t1, 4</t>
+  </si>
+  <si>
+    <t>sra $v0, $t1, 8</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>srl $v0, $t1, 4</t>
+  </si>
+  <si>
+    <t>sra $v0, $t1, 2</t>
+  </si>
+  <si>
+    <t>srl $v0, $t1, 8</t>
+  </si>
+  <si>
+    <t>srl $v0, $t1, 2</t>
+  </si>
+  <si>
+    <t>00091102</t>
+  </si>
+  <si>
+    <t>00091082</t>
+  </si>
+  <si>
+    <t>00091202</t>
+  </si>
+  <si>
+    <t>assert v0=0x0f000000</t>
+  </si>
+  <si>
+    <t>assert v0=0x00f00000</t>
+  </si>
+  <si>
+    <t>assert v0=0x3c000000</t>
+  </si>
+  <si>
+    <t>srlv $v0, $t1, $t2</t>
+  </si>
+  <si>
+    <t>01491006</t>
+  </si>
+  <si>
+    <t>subu</t>
+  </si>
+  <si>
+    <t>assert v0=9</t>
+  </si>
+  <si>
+    <t>store 100 at word address 24</t>
+  </si>
+  <si>
+    <t>store 15 at word address 28</t>
+  </si>
+  <si>
+    <t>assert v0=85</t>
+  </si>
+  <si>
+    <t>subu $v0, $t1, $t2</t>
+  </si>
+  <si>
+    <t>012A1023</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>store 0x45cda3f3 at address 44</t>
+  </si>
+  <si>
+    <t>sw $t1, 48($t0)</t>
+  </si>
+  <si>
+    <t>101011</t>
+  </si>
+  <si>
+    <t>AD090030</t>
+  </si>
+  <si>
+    <t>assert mem[12]=0x45cda3f3</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>xor $v0, $t1, $t2</t>
+  </si>
+  <si>
+    <t>012A1026</t>
+  </si>
+  <si>
+    <t>001110</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>3922FFFF</t>
+  </si>
+  <si>
+    <t>xori $v0, $t1, 0xffff</t>
+  </si>
+  <si>
+    <t>392200FF</t>
+  </si>
+  <si>
+    <t>xori $v0, $t1, 0x00ff</t>
+  </si>
+  <si>
+    <t>assert v0=0xff0000ff</t>
   </si>
 </sst>
 </file>
@@ -1413,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ED3568-0F05-4937-8607-6989EFDB295E}">
-  <dimension ref="A2:V846"/>
+  <dimension ref="A2:V952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L671" sqref="L671"/>
+    <sheetView tabSelected="1" topLeftCell="A878" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U892" sqref="U892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1748,6 +2033,9 @@
       <c r="K15">
         <v>12</v>
       </c>
+      <c r="L15" s="3" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D16" s="3"/>
@@ -1878,6 +2166,9 @@
       <c r="K20">
         <v>12</v>
       </c>
+      <c r="L20" s="3" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D21" s="3"/>
@@ -2061,6 +2352,9 @@
       <c r="K28">
         <v>16</v>
       </c>
+      <c r="L28" s="3" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D29" s="3"/>
@@ -2223,6 +2517,9 @@
       <c r="K34">
         <v>16</v>
       </c>
+      <c r="L34" s="3" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D35" s="3"/>
@@ -2385,6 +2682,9 @@
       <c r="K40">
         <v>16</v>
       </c>
+      <c r="L40" s="3" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D41" s="3"/>
@@ -2607,7 +2907,7 @@
       <c r="K48">
         <v>16</v>
       </c>
-      <c r="M48" t="s">
+      <c r="L48" t="s">
         <v>176</v>
       </c>
       <c r="S48">
@@ -2826,7 +3126,7 @@
       <c r="K54">
         <v>16</v>
       </c>
-      <c r="M54" t="s">
+      <c r="L54" t="s">
         <v>177</v>
       </c>
       <c r="S54">
@@ -3044,6 +3344,9 @@
       </c>
       <c r="K60">
         <v>16</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="S60">
         <v>16</v>
@@ -3241,6 +3544,9 @@
       <c r="K67">
         <v>12</v>
       </c>
+      <c r="L67" s="3" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D68" s="3"/>
@@ -3371,6 +3677,9 @@
       <c r="K72">
         <v>12</v>
       </c>
+      <c r="L72" s="3" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D73" s="3"/>
@@ -3501,6 +3810,9 @@
       <c r="K77">
         <v>12</v>
       </c>
+      <c r="L77" s="3" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D78" s="3"/>
@@ -3784,6 +4096,9 @@
       <c r="K89">
         <v>36</v>
       </c>
+      <c r="L89" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D90" s="3"/>
@@ -4047,6 +4362,9 @@
       <c r="K99">
         <v>36</v>
       </c>
+      <c r="L99" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D100" s="3"/>
@@ -4298,6 +4616,9 @@
       <c r="K110">
         <v>32</v>
       </c>
+      <c r="L110" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D111" s="3"/>
@@ -4528,6 +4849,9 @@
       <c r="K119">
         <v>32</v>
       </c>
+      <c r="L119" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D120" s="3"/>
@@ -4758,6 +5082,9 @@
       <c r="K128">
         <v>32</v>
       </c>
+      <c r="L128" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D129" s="3"/>
@@ -4996,6 +5323,9 @@
       <c r="K138">
         <v>32</v>
       </c>
+      <c r="L138" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D139" s="3"/>
@@ -5222,6 +5552,9 @@
       <c r="K147">
         <v>32</v>
       </c>
+      <c r="L147" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D148" s="3"/>
@@ -5448,6 +5781,9 @@
       <c r="K156">
         <v>32</v>
       </c>
+      <c r="L156" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D157" s="3"/>
@@ -5696,6 +6032,9 @@
       <c r="K167">
         <v>32</v>
       </c>
+      <c r="L167" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D168" s="3"/>
@@ -5923,6 +6262,9 @@
       <c r="K176">
         <v>32</v>
       </c>
+      <c r="L176" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D177" s="3"/>
@@ -6150,6 +6492,9 @@
       <c r="K185">
         <v>32</v>
       </c>
+      <c r="L185" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D186" s="3"/>
@@ -6398,6 +6743,9 @@
       <c r="K196">
         <v>32</v>
       </c>
+      <c r="L196" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D197" s="3"/>
@@ -6625,6 +6973,9 @@
       <c r="K205">
         <v>32</v>
       </c>
+      <c r="L205" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D206" s="3"/>
@@ -6852,6 +7203,9 @@
       <c r="K214">
         <v>32</v>
       </c>
+      <c r="L214" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D215" s="3"/>
@@ -7100,6 +7454,9 @@
       <c r="K225">
         <v>32</v>
       </c>
+      <c r="L225" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D226" s="3"/>
@@ -7327,6 +7684,9 @@
       <c r="K234">
         <v>32</v>
       </c>
+      <c r="L234" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D235" s="3"/>
@@ -7554,6 +7914,9 @@
       <c r="K243">
         <v>32</v>
       </c>
+      <c r="L243" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D244" s="3"/>
@@ -7802,6 +8165,9 @@
       <c r="K254">
         <v>32</v>
       </c>
+      <c r="L254" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D255" s="3"/>
@@ -8029,6 +8395,9 @@
       <c r="K263">
         <v>32</v>
       </c>
+      <c r="L263" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D264" s="3"/>
@@ -8256,6 +8625,9 @@
       <c r="K272">
         <v>32</v>
       </c>
+      <c r="L272" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D273" s="3"/>
@@ -8539,6 +8911,9 @@
       <c r="K284">
         <v>36</v>
       </c>
+      <c r="L284" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D285" s="3"/>
@@ -8802,6 +9177,9 @@
       <c r="K294">
         <v>36</v>
       </c>
+      <c r="L294" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D295" s="3"/>
@@ -9014,6 +9392,9 @@
       <c r="K303">
         <v>20</v>
       </c>
+      <c r="L303" s="3" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D304" s="3"/>
@@ -9205,6 +9586,9 @@
       <c r="K310">
         <v>20</v>
       </c>
+      <c r="L310" s="3" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D311" s="3"/>
@@ -9396,6 +9780,9 @@
       <c r="K317">
         <v>20</v>
       </c>
+      <c r="L317" s="3" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D318" s="3"/>
@@ -9424,7 +9811,7 @@
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>9</v>
       </c>
@@ -9456,7 +9843,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>60</v>
       </c>
@@ -9488,7 +9875,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>61</v>
       </c>
@@ -9520,7 +9907,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>116</v>
       </c>
@@ -9549,7 +9936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
         <v>20</v>
       </c>
@@ -9580,7 +9967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>103</v>
       </c>
@@ -9608,8 +9995,11 @@
       <c r="K326">
         <v>20</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L326" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
@@ -9618,7 +10008,7 @@
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>9</v>
       </c>
@@ -9647,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>60</v>
       </c>
@@ -9679,7 +10069,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>61</v>
       </c>
@@ -9711,7 +10101,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>116</v>
       </c>
@@ -9740,7 +10130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
         <v>20</v>
       </c>
@@ -9771,7 +10161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>103</v>
       </c>
@@ -9799,8 +10189,14 @@
       <c r="K333">
         <v>20</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L333" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="N333" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
@@ -9809,7 +10205,7 @@
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -9838,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>60</v>
       </c>
@@ -9870,7 +10266,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>61</v>
       </c>
@@ -9902,7 +10298,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>116</v>
       </c>
@@ -9931,7 +10327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
         <v>20</v>
       </c>
@@ -9962,7 +10358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>103</v>
       </c>
@@ -9990,8 +10386,11 @@
       <c r="K340">
         <v>20</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L340" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
@@ -10000,7 +10399,7 @@
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
@@ -10009,7 +10408,7 @@
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
@@ -10018,7 +10417,7 @@
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -10050,7 +10449,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>118</v>
       </c>
@@ -10079,7 +10478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>122</v>
       </c>
@@ -10111,7 +10510,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347" s="3" t="s">
         <v>20</v>
       </c>
@@ -10142,7 +10541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>53</v>
       </c>
@@ -10153,7 +10552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349" s="3" t="s">
         <v>20</v>
       </c>
@@ -10184,9 +10583,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="D350" s="2">
         <v>100011</v>
@@ -10215,8 +10614,11 @@
       <c r="L350" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O350" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
@@ -10225,7 +10627,7 @@
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -10387,13 +10789,10 @@
       <c r="K357">
         <v>20</v>
       </c>
-      <c r="L357" s="3" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="D358" s="2">
         <v>100011</v>
@@ -10418,6 +10817,12 @@
       </c>
       <c r="K358">
         <v>24</v>
+      </c>
+      <c r="L358" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O358" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.35">
@@ -10705,6 +11110,9 @@
       <c r="K370">
         <v>32</v>
       </c>
+      <c r="L370" s="3" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D371" s="3"/>
@@ -10980,6 +11388,9 @@
       <c r="K381">
         <v>36</v>
       </c>
+      <c r="L381" s="3" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D382" s="3"/>
@@ -11232,6 +11643,9 @@
       </c>
       <c r="K392">
         <v>28</v>
+      </c>
+      <c r="L392" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.35">
@@ -11477,6 +11891,9 @@
       <c r="K403">
         <v>32</v>
       </c>
+      <c r="L403" s="3" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D405" s="3"/>
@@ -11721,6 +12138,9 @@
       </c>
       <c r="K414">
         <v>28</v>
+      </c>
+      <c r="L414" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.35">
@@ -11762,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>132</v>
       </c>
@@ -11794,7 +12214,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>146</v>
       </c>
@@ -11823,7 +12243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>122</v>
       </c>
@@ -11855,7 +12275,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A420" s="3" t="s">
         <v>20</v>
       </c>
@@ -11886,7 +12306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>53</v>
       </c>
@@ -11897,7 +12317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>53</v>
       </c>
@@ -11908,7 +12328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A423" s="3" t="s">
         <v>20</v>
       </c>
@@ -11939,7 +12359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>203</v>
       </c>
@@ -11967,8 +12387,11 @@
       <c r="K424">
         <v>32</v>
       </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L424" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
@@ -11977,7 +12400,7 @@
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
@@ -11986,7 +12409,7 @@
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
@@ -11995,7 +12418,7 @@
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -12027,7 +12450,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A429" s="3" t="s">
         <v>20</v>
       </c>
@@ -12058,7 +12481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>149</v>
       </c>
@@ -12089,8 +12512,11 @@
       <c r="L430" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P430" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
@@ -12099,7 +12525,7 @@
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>9</v>
       </c>
@@ -12128,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A433" s="3" t="s">
         <v>20</v>
       </c>
@@ -12159,7 +12585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>152</v>
       </c>
@@ -12190,8 +12616,11 @@
       <c r="L434" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P434" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
@@ -12200,7 +12629,7 @@
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>9</v>
       </c>
@@ -12229,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A437" s="3" t="s">
         <v>20</v>
       </c>
@@ -12260,7 +12689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>153</v>
       </c>
@@ -12291,8 +12720,11 @@
       <c r="L438" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P438" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>9</v>
       </c>
@@ -12321,7 +12753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A441" s="3" t="s">
         <v>20</v>
       </c>
@@ -12352,7 +12784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>154</v>
       </c>
@@ -12383,8 +12815,11 @@
       <c r="L442" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P442" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>9</v>
       </c>
@@ -12416,7 +12851,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A447" s="3" t="s">
         <v>20</v>
       </c>
@@ -12447,7 +12882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>163</v>
       </c>
@@ -12478,8 +12913,11 @@
       <c r="L448" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P448" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
@@ -12488,7 +12926,7 @@
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -12517,7 +12955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A451" s="3" t="s">
         <v>20</v>
       </c>
@@ -12548,7 +12986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>164</v>
       </c>
@@ -12579,8 +13017,11 @@
       <c r="L452" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P452" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
@@ -12589,7 +13030,7 @@
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>9</v>
       </c>
@@ -12618,7 +13059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A455" s="3" t="s">
         <v>20</v>
       </c>
@@ -12649,7 +13090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>165</v>
       </c>
@@ -12680,8 +13121,11 @@
       <c r="L456" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P456" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>9</v>
       </c>
@@ -12710,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A459" s="3" t="s">
         <v>20</v>
       </c>
@@ -12741,7 +13185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>166</v>
       </c>
@@ -12772,8 +13216,11 @@
       <c r="L460" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P460" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>9</v>
       </c>
@@ -12805,7 +13252,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A465" s="3" t="s">
         <v>20</v>
       </c>
@@ -12836,7 +13283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>174</v>
       </c>
@@ -12865,10 +13312,13 @@
         <v>8</v>
       </c>
       <c r="L466" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+      <c r="P466" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>9</v>
       </c>
@@ -12897,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A469" s="3" t="s">
         <v>20</v>
       </c>
@@ -12928,7 +13378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>186</v>
       </c>
@@ -12957,10 +13407,13 @@
         <v>8</v>
       </c>
       <c r="L470" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+      <c r="P470" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>9</v>
       </c>
@@ -12992,7 +13445,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A475" s="3" t="s">
         <v>20</v>
       </c>
@@ -13023,7 +13476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>188</v>
       </c>
@@ -13054,8 +13507,11 @@
       <c r="L476" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P476" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>9</v>
       </c>
@@ -13084,7 +13540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A479" s="3" t="s">
         <v>20</v>
       </c>
@@ -13115,7 +13571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>189</v>
       </c>
@@ -13146,8 +13602,11 @@
       <c r="L480" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P480" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="484" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A484" s="3" t="s">
         <v>20</v>
       </c>
@@ -13181,7 +13640,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>58</v>
       </c>
@@ -13209,8 +13668,11 @@
       <c r="K485">
         <v>4</v>
       </c>
-    </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N485" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A487" s="3" t="s">
         <v>20</v>
       </c>
@@ -13241,7 +13703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>195</v>
       </c>
@@ -13269,8 +13731,11 @@
       <c r="K488">
         <v>4</v>
       </c>
-    </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N488" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A490" s="3" t="s">
         <v>20</v>
       </c>
@@ -13301,7 +13766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>198</v>
       </c>
@@ -13329,8 +13794,11 @@
       <c r="K491">
         <v>4</v>
       </c>
-    </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N491" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="495" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>9</v>
       </c>
@@ -13362,7 +13830,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A496" s="3" t="s">
         <v>20</v>
       </c>
@@ -13393,7 +13861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>122</v>
       </c>
@@ -13424,8 +13892,11 @@
       <c r="L497" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P497" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>9</v>
       </c>
@@ -13454,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A500" s="3" t="s">
         <v>20</v>
       </c>
@@ -13485,7 +13956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>122</v>
       </c>
@@ -13516,8 +13987,11 @@
       <c r="L501" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P501" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>9</v>
       </c>
@@ -13546,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A504" s="3" t="s">
         <v>20</v>
       </c>
@@ -13577,7 +14051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>203</v>
       </c>
@@ -13608,8 +14082,11 @@
       <c r="L505" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P505" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>9</v>
       </c>
@@ -13641,7 +14118,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A510" s="3" t="s">
         <v>20</v>
       </c>
@@ -13672,7 +14149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>208</v>
       </c>
@@ -13703,8 +14180,11 @@
       <c r="L511" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P511" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>9</v>
       </c>
@@ -13733,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A514" s="3" t="s">
         <v>20</v>
       </c>
@@ -13764,7 +14244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>210</v>
       </c>
@@ -13795,8 +14275,11 @@
       <c r="L515" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P515" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>9</v>
       </c>
@@ -13825,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A518" s="3" t="s">
         <v>20</v>
       </c>
@@ -13856,7 +14339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>211</v>
       </c>
@@ -13887,8 +14370,11 @@
       <c r="L519" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P519" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>9</v>
       </c>
@@ -13917,7 +14403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A522" s="3" t="s">
         <v>20</v>
       </c>
@@ -13948,7 +14434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>212</v>
       </c>
@@ -13979,8 +14465,11 @@
       <c r="L523" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P523" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>9</v>
       </c>
@@ -14012,7 +14501,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A528" s="3" t="s">
         <v>20</v>
       </c>
@@ -14043,7 +14532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>217</v>
       </c>
@@ -14074,8 +14563,11 @@
       <c r="L529" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P529" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>9</v>
       </c>
@@ -14104,7 +14596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A532" s="3" t="s">
         <v>20</v>
       </c>
@@ -14135,7 +14627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>218</v>
       </c>
@@ -14166,8 +14658,11 @@
       <c r="L533" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P533" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>9</v>
       </c>
@@ -14196,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A536" s="3" t="s">
         <v>20</v>
       </c>
@@ -14227,7 +14722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>219</v>
       </c>
@@ -14258,8 +14753,11 @@
       <c r="L537" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P537" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>9</v>
       </c>
@@ -14288,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A540" s="3" t="s">
         <v>20</v>
       </c>
@@ -14319,7 +14817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>220</v>
       </c>
@@ -14350,8 +14848,11 @@
       <c r="L541" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P541" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="545" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>9</v>
       </c>
@@ -14383,7 +14884,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>60</v>
       </c>
@@ -14415,7 +14916,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>225</v>
       </c>
@@ -14444,7 +14945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A548" s="3" t="s">
         <v>20</v>
       </c>
@@ -14475,7 +14976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A549" s="3" t="s">
         <v>128</v>
       </c>
@@ -14503,8 +15004,11 @@
       <c r="K549">
         <v>16</v>
       </c>
-    </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P549" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>9</v>
       </c>
@@ -14533,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>60</v>
       </c>
@@ -14565,7 +15069,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>225</v>
       </c>
@@ -14594,7 +15098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A554" s="3" t="s">
         <v>20</v>
       </c>
@@ -14625,7 +15129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A555" s="3" t="s">
         <v>128</v>
       </c>
@@ -14653,8 +15157,11 @@
       <c r="K555">
         <v>16</v>
       </c>
-    </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P555" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -14683,7 +15190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>60</v>
       </c>
@@ -14715,7 +15222,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>225</v>
       </c>
@@ -14744,7 +15251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A560" s="3" t="s">
         <v>20</v>
       </c>
@@ -14775,7 +15282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A561" s="3" t="s">
         <v>128</v>
       </c>
@@ -14803,8 +15310,11 @@
       <c r="K561">
         <v>16</v>
       </c>
-    </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P561" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>9</v>
       </c>
@@ -14836,7 +15346,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>60</v>
       </c>
@@ -14867,8 +15377,11 @@
       <c r="L566" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P566" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>230</v>
       </c>
@@ -14897,7 +15410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A568" s="3" t="s">
         <v>20</v>
       </c>
@@ -14928,7 +15441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A569" s="3" t="s">
         <v>103</v>
       </c>
@@ -14957,7 +15470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>9</v>
       </c>
@@ -14986,7 +15499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>60</v>
       </c>
@@ -15017,8 +15530,11 @@
       <c r="L572" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P572" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>230</v>
       </c>
@@ -15047,7 +15563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A574" s="3" t="s">
         <v>20</v>
       </c>
@@ -15078,7 +15594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A575" s="3" t="s">
         <v>103</v>
       </c>
@@ -15107,7 +15623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>9</v>
       </c>
@@ -15136,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>60</v>
       </c>
@@ -15167,8 +15683,11 @@
       <c r="L578" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P578" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>230</v>
       </c>
@@ -15197,7 +15716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A580" s="3" t="s">
         <v>20</v>
       </c>
@@ -15228,7 +15747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A581" s="3" t="s">
         <v>103</v>
       </c>
@@ -15257,7 +15776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>9</v>
       </c>
@@ -15289,7 +15808,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>60</v>
       </c>
@@ -15321,7 +15840,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>61</v>
       </c>
@@ -15353,7 +15872,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>234</v>
       </c>
@@ -15382,7 +15901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A589" s="3" t="s">
         <v>20</v>
       </c>
@@ -15413,7 +15932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A590" s="3" t="s">
         <v>103</v>
       </c>
@@ -15442,8 +15961,11 @@
         <v>20</v>
       </c>
       <c r="L590" s="3"/>
-    </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P590" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="592" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>9</v>
       </c>
@@ -15472,7 +15994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>60</v>
       </c>
@@ -15504,7 +16026,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>61</v>
       </c>
@@ -15536,7 +16058,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>234</v>
       </c>
@@ -15565,7 +16087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A596" s="3" t="s">
         <v>20</v>
       </c>
@@ -15596,7 +16118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A597" s="3" t="s">
         <v>103</v>
       </c>
@@ -15624,8 +16146,11 @@
       <c r="K597">
         <v>20</v>
       </c>
-    </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P597" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="599" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>9</v>
       </c>
@@ -15654,7 +16179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>60</v>
       </c>
@@ -15686,7 +16211,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>61</v>
       </c>
@@ -15718,7 +16243,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>234</v>
       </c>
@@ -15747,7 +16272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A603" s="3" t="s">
         <v>20</v>
       </c>
@@ -15778,7 +16303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A604" s="3" t="s">
         <v>103</v>
       </c>
@@ -15806,8 +16331,11 @@
       <c r="K604">
         <v>20</v>
       </c>
-    </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P604" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="608" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>9</v>
       </c>
@@ -15839,7 +16367,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>60</v>
       </c>
@@ -15871,7 +16399,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>61</v>
       </c>
@@ -15903,7 +16431,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>238</v>
       </c>
@@ -15932,7 +16460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A612" s="3" t="s">
         <v>20</v>
       </c>
@@ -15963,7 +16491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A613" s="3" t="s">
         <v>103</v>
       </c>
@@ -15992,8 +16520,11 @@
         <v>20</v>
       </c>
       <c r="L613" s="3"/>
-    </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P613" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>9</v>
       </c>
@@ -16022,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>60</v>
       </c>
@@ -16054,7 +16585,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>61</v>
       </c>
@@ -16086,7 +16617,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>238</v>
       </c>
@@ -16115,7 +16646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A619" s="3" t="s">
         <v>20</v>
       </c>
@@ -16146,7 +16677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A620" s="3" t="s">
         <v>103</v>
       </c>
@@ -16174,8 +16705,11 @@
       <c r="K620">
         <v>20</v>
       </c>
-    </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P620" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="622" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>9</v>
       </c>
@@ -16204,7 +16738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>60</v>
       </c>
@@ -16236,7 +16770,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>61</v>
       </c>
@@ -16268,7 +16802,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>238</v>
       </c>
@@ -16297,7 +16831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A626" s="3" t="s">
         <v>20</v>
       </c>
@@ -16328,7 +16862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A627" s="3" t="s">
         <v>103</v>
       </c>
@@ -16356,8 +16890,11 @@
       <c r="K627">
         <v>20</v>
       </c>
-    </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P627" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="631" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>9</v>
       </c>
@@ -16389,7 +16926,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>60</v>
       </c>
@@ -16421,7 +16958,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>61</v>
       </c>
@@ -16453,7 +16990,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A634" s="3" t="s">
         <v>20</v>
       </c>
@@ -16484,7 +17021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>243</v>
       </c>
@@ -16512,8 +17049,11 @@
       <c r="K635">
         <v>16</v>
       </c>
-    </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P635" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="637" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>9</v>
       </c>
@@ -16542,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>60</v>
       </c>
@@ -16574,7 +17114,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>61</v>
       </c>
@@ -16606,7 +17146,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A640" s="3" t="s">
         <v>20</v>
       </c>
@@ -16637,7 +17177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>243</v>
       </c>
@@ -16665,8 +17205,11 @@
       <c r="K641">
         <v>16</v>
       </c>
-    </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P641" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="643" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>9</v>
       </c>
@@ -16695,7 +17238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>60</v>
       </c>
@@ -16727,7 +17270,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>61</v>
       </c>
@@ -16759,7 +17302,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A646" s="3" t="s">
         <v>20</v>
       </c>
@@ -16790,7 +17333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>243</v>
       </c>
@@ -16818,8 +17361,11 @@
       <c r="K647">
         <v>16</v>
       </c>
-    </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P647" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="651" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>9</v>
       </c>
@@ -16851,7 +17397,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>60</v>
       </c>
@@ -16883,7 +17429,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A653" s="3" t="s">
         <v>20</v>
       </c>
@@ -16914,7 +17460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>248</v>
       </c>
@@ -16942,8 +17488,11 @@
       <c r="K654">
         <v>12</v>
       </c>
-    </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P654" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="656" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>9</v>
       </c>
@@ -16972,7 +17521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>60</v>
       </c>
@@ -17004,7 +17553,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A658" s="3" t="s">
         <v>20</v>
       </c>
@@ -17035,7 +17584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>248</v>
       </c>
@@ -17063,8 +17612,11 @@
       <c r="K659">
         <v>12</v>
       </c>
-    </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P659" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="661" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>9</v>
       </c>
@@ -17093,7 +17645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>60</v>
       </c>
@@ -17125,7 +17677,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A663" s="3" t="s">
         <v>20</v>
       </c>
@@ -17156,7 +17708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>254</v>
       </c>
@@ -17184,8 +17736,11 @@
       <c r="K664">
         <v>12</v>
       </c>
-    </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P664" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="668" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>9</v>
       </c>
@@ -17217,7 +17772,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>60</v>
       </c>
@@ -17249,7 +17804,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A670" s="3" t="s">
         <v>20</v>
       </c>
@@ -17280,7 +17835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>258</v>
       </c>
@@ -17308,9 +17863,11 @@
       <c r="K671">
         <v>12</v>
       </c>
-      <c r="L671" s="3"/>
-    </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P671" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="672" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D672" s="2"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
@@ -17319,7 +17876,7 @@
       <c r="I672" s="3"/>
       <c r="J672" s="3"/>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>9</v>
       </c>
@@ -17348,7 +17905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>60</v>
       </c>
@@ -17380,7 +17937,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A675" s="3" t="s">
         <v>20</v>
       </c>
@@ -17411,7 +17968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>266</v>
       </c>
@@ -17439,8 +17996,11 @@
       <c r="K676">
         <v>12</v>
       </c>
-    </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P676" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="677" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -17452,7 +18012,7 @@
       <c r="I677" s="3"/>
       <c r="J677" s="3"/>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>9</v>
       </c>
@@ -17481,7 +18041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>60</v>
       </c>
@@ -17513,7 +18073,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A680" s="3" t="s">
         <v>20</v>
       </c>
@@ -17544,7 +18104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>267</v>
       </c>
@@ -17572,8 +18132,11 @@
       <c r="K681">
         <v>12</v>
       </c>
-    </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P681" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="682" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D682" s="3"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
@@ -17582,7 +18145,7 @@
       <c r="I682" s="3"/>
       <c r="J682" s="3"/>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>9</v>
       </c>
@@ -17611,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>60</v>
       </c>
@@ -17643,7 +18206,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A685" s="3" t="s">
         <v>20</v>
       </c>
@@ -17674,7 +18237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>268</v>
       </c>
@@ -17702,8 +18265,11 @@
       <c r="K686">
         <v>12</v>
       </c>
-    </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P686" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="690" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>9</v>
       </c>
@@ -17735,7 +18301,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>60</v>
       </c>
@@ -17767,7 +18333,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A692" s="3" t="s">
         <v>20</v>
       </c>
@@ -17798,7 +18364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>271</v>
       </c>
@@ -17826,8 +18392,11 @@
       <c r="K693">
         <v>12</v>
       </c>
-    </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P693" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="695" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>9</v>
       </c>
@@ -17856,7 +18425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>60</v>
       </c>
@@ -17888,7 +18457,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A697" s="3" t="s">
         <v>20</v>
       </c>
@@ -17919,7 +18488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>275</v>
       </c>
@@ -17947,8 +18516,11 @@
       <c r="K698">
         <v>12</v>
       </c>
-    </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P698" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="702" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>9</v>
       </c>
@@ -17980,7 +18552,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>60</v>
       </c>
@@ -18012,7 +18584,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A704" s="3" t="s">
         <v>20</v>
       </c>
@@ -18043,7 +18615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>280</v>
       </c>
@@ -18071,8 +18643,11 @@
       <c r="K705">
         <v>12</v>
       </c>
-    </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P705" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="707" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>9</v>
       </c>
@@ -18101,7 +18676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>60</v>
       </c>
@@ -18133,7 +18708,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A709" s="3" t="s">
         <v>20</v>
       </c>
@@ -18164,7 +18739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>281</v>
       </c>
@@ -18192,8 +18767,11 @@
       <c r="K710">
         <v>12</v>
       </c>
-    </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P710" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="712" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>9</v>
       </c>
@@ -18222,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>60</v>
       </c>
@@ -18254,7 +18832,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A714" s="3" t="s">
         <v>20</v>
       </c>
@@ -18285,7 +18863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>283</v>
       </c>
@@ -18313,8 +18891,11 @@
       <c r="K715">
         <v>12</v>
       </c>
-    </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P715" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="719" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>9</v>
       </c>
@@ -18346,7 +18927,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>60</v>
       </c>
@@ -18378,7 +18959,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>61</v>
       </c>
@@ -18410,7 +18991,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A722" s="3" t="s">
         <v>20</v>
       </c>
@@ -18441,7 +19022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>287</v>
       </c>
@@ -18469,8 +19050,11 @@
       <c r="K723">
         <v>16</v>
       </c>
-    </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P723" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="725" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>9</v>
       </c>
@@ -18499,7 +19083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>60</v>
       </c>
@@ -18531,7 +19115,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>61</v>
       </c>
@@ -18563,7 +19147,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A728" s="3" t="s">
         <v>20</v>
       </c>
@@ -18594,7 +19178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>287</v>
       </c>
@@ -18622,8 +19206,11 @@
       <c r="K729">
         <v>16</v>
       </c>
-    </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P729" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="731" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>9</v>
       </c>
@@ -18652,7 +19239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>60</v>
       </c>
@@ -18684,7 +19271,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>61</v>
       </c>
@@ -18716,7 +19303,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A734" s="3" t="s">
         <v>20</v>
       </c>
@@ -18746,8 +19333,11 @@
       <c r="K734">
         <v>12</v>
       </c>
-    </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P734" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="735" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>287</v>
       </c>
@@ -18776,7 +19366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="739" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>9</v>
       </c>
@@ -18808,7 +19398,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>60</v>
       </c>
@@ -18840,7 +19430,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>61</v>
       </c>
@@ -18872,7 +19462,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="742" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A742" s="3" t="s">
         <v>20</v>
       </c>
@@ -18903,7 +19493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="743" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>293</v>
       </c>
@@ -18931,8 +19521,11 @@
       <c r="K743">
         <v>16</v>
       </c>
-    </row>
-    <row r="745" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M743" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="745" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>9</v>
       </c>
@@ -18961,7 +19554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>60</v>
       </c>
@@ -18993,7 +19586,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="747" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>61</v>
       </c>
@@ -19025,7 +19618,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="748" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A748" s="3" t="s">
         <v>20</v>
       </c>
@@ -19056,7 +19649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="749" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>293</v>
       </c>
@@ -19084,8 +19677,11 @@
       <c r="K749">
         <v>16</v>
       </c>
-    </row>
-    <row r="751" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M749" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="751" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>9</v>
       </c>
@@ -19114,7 +19710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>60</v>
       </c>
@@ -19146,7 +19742,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="753" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>61</v>
       </c>
@@ -19178,7 +19774,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="754" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A754" s="3" t="s">
         <v>20</v>
       </c>
@@ -19209,7 +19805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="755" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>293</v>
       </c>
@@ -19237,8 +19833,11 @@
       <c r="K755">
         <v>16</v>
       </c>
-    </row>
-    <row r="759" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M755" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="759" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>9</v>
       </c>
@@ -19270,7 +19869,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="760" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>60</v>
       </c>
@@ -19302,7 +19901,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="761" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A761" s="3" t="s">
         <v>20</v>
       </c>
@@ -19333,7 +19932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="762" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>298</v>
       </c>
@@ -19361,8 +19960,11 @@
       <c r="K762">
         <v>12</v>
       </c>
-    </row>
-    <row r="764" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M762" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="764" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>9</v>
       </c>
@@ -19391,7 +19993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>60</v>
       </c>
@@ -19423,7 +20025,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="766" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A766" s="3" t="s">
         <v>20</v>
       </c>
@@ -19454,7 +20056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="767" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>298</v>
       </c>
@@ -19482,8 +20084,11 @@
       <c r="K767">
         <v>12</v>
       </c>
-    </row>
-    <row r="769" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M767" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="769" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>9</v>
       </c>
@@ -19512,7 +20117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>60</v>
       </c>
@@ -19544,7 +20149,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="771" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A771" s="3" t="s">
         <v>20</v>
       </c>
@@ -19575,7 +20180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>300</v>
       </c>
@@ -19598,13 +20203,16 @@
         <v>119</v>
       </c>
       <c r="J772" s="3" t="s">
-        <v>299</v>
+        <v>389</v>
       </c>
       <c r="K772">
         <v>12</v>
       </c>
-    </row>
-    <row r="776" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M772" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="776" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>9</v>
       </c>
@@ -19636,7 +20244,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="777" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>60</v>
       </c>
@@ -19668,7 +20276,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="778" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A778" s="3" t="s">
         <v>20</v>
       </c>
@@ -19699,7 +20307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="779" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>303</v>
       </c>
@@ -19727,8 +20335,11 @@
       <c r="K779">
         <v>12</v>
       </c>
-    </row>
-    <row r="781" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M779" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="781" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>9</v>
       </c>
@@ -19757,7 +20368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>60</v>
       </c>
@@ -19789,7 +20400,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="783" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A783" s="3" t="s">
         <v>20</v>
       </c>
@@ -19820,7 +20431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="784" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>303</v>
       </c>
@@ -19848,8 +20459,11 @@
       <c r="K784">
         <v>12</v>
       </c>
-    </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M784" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="786" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>9</v>
       </c>
@@ -19878,7 +20492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>60</v>
       </c>
@@ -19910,7 +20524,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A788" s="3" t="s">
         <v>20</v>
       </c>
@@ -19941,7 +20555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>306</v>
       </c>
@@ -19969,8 +20583,11 @@
       <c r="K789">
         <v>12</v>
       </c>
-    </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M789" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="793" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>9</v>
       </c>
@@ -19999,10 +20616,10 @@
         <v>0</v>
       </c>
       <c r="L793" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="794" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>60</v>
       </c>
@@ -20034,7 +20651,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>61</v>
       </c>
@@ -20066,7 +20683,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="796" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A796" s="3" t="s">
         <v>20</v>
       </c>
@@ -20097,7 +20714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="797" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>308</v>
       </c>
@@ -20125,8 +20742,11 @@
       <c r="K797">
         <v>16</v>
       </c>
-    </row>
-    <row r="799" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M797" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="799" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>9</v>
       </c>
@@ -20155,7 +20775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>60</v>
       </c>
@@ -20187,7 +20807,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="801" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>61</v>
       </c>
@@ -20219,7 +20839,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="802" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A802" s="3" t="s">
         <v>20</v>
       </c>
@@ -20250,7 +20870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="803" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>308</v>
       </c>
@@ -20278,8 +20898,11 @@
       <c r="K803">
         <v>16</v>
       </c>
-    </row>
-    <row r="805" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M803" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="805" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>9</v>
       </c>
@@ -20308,7 +20931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>60</v>
       </c>
@@ -20340,7 +20963,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>61</v>
       </c>
@@ -20372,7 +20995,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A808" s="3" t="s">
         <v>20</v>
       </c>
@@ -20403,7 +21026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>308</v>
       </c>
@@ -20431,8 +21054,11 @@
       <c r="K809">
         <v>16</v>
       </c>
-    </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M809" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="813" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>9</v>
       </c>
@@ -20464,7 +21090,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>60</v>
       </c>
@@ -20496,7 +21122,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A815" s="3" t="s">
         <v>20</v>
       </c>
@@ -20527,9 +21153,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="816" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
-        <v>280</v>
+        <v>393</v>
       </c>
       <c r="D816" s="3" t="s">
         <v>15</v>
@@ -20555,8 +21181,11 @@
       <c r="K816">
         <v>12</v>
       </c>
-    </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M816" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="818" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>9</v>
       </c>
@@ -20585,7 +21214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>60</v>
       </c>
@@ -20617,7 +21246,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="820" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A820" s="3" t="s">
         <v>20</v>
       </c>
@@ -20648,9 +21277,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="821" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
-        <v>281</v>
+        <v>394</v>
       </c>
       <c r="D821" s="3" t="s">
         <v>15</v>
@@ -20676,8 +21305,11 @@
       <c r="K821">
         <v>12</v>
       </c>
-    </row>
-    <row r="823" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M821" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="823" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>9</v>
       </c>
@@ -20706,7 +21338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>60</v>
       </c>
@@ -20738,7 +21370,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="825" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A825" s="3" t="s">
         <v>20</v>
       </c>
@@ -20769,9 +21401,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="826" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
-        <v>283</v>
+        <v>397</v>
       </c>
       <c r="D826" s="3" t="s">
         <v>15</v>
@@ -20797,8 +21429,11 @@
       <c r="K826">
         <v>12</v>
       </c>
-    </row>
-    <row r="830" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M826" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="830" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>9</v>
       </c>
@@ -20830,7 +21465,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="831" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>60</v>
       </c>
@@ -20862,7 +21497,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="832" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>61</v>
       </c>
@@ -20894,7 +21529,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="833" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A833" s="3" t="s">
         <v>20</v>
       </c>
@@ -20925,7 +21560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="834" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
         <v>316</v>
       </c>
@@ -20953,8 +21588,11 @@
       <c r="K834">
         <v>16</v>
       </c>
-    </row>
-    <row r="836" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M834" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="836" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
         <v>9</v>
       </c>
@@ -20983,7 +21621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
         <v>60</v>
       </c>
@@ -21015,7 +21653,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="838" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
         <v>61</v>
       </c>
@@ -21047,7 +21685,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="839" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A839" s="3" t="s">
         <v>20</v>
       </c>
@@ -21078,7 +21716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="840" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
         <v>316</v>
       </c>
@@ -21106,8 +21744,11 @@
       <c r="K840">
         <v>16</v>
       </c>
-    </row>
-    <row r="842" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M840" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="842" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
         <v>9</v>
       </c>
@@ -21136,7 +21777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
         <v>60</v>
       </c>
@@ -21168,7 +21809,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="844" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
         <v>61</v>
       </c>
@@ -21200,7 +21841,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="845" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A845" s="3" t="s">
         <v>20</v>
       </c>
@@ -21231,7 +21872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="846" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
         <v>316</v>
       </c>
@@ -21258,6 +21899,2441 @@
       </c>
       <c r="K846">
         <v>16</v>
+      </c>
+      <c r="M846" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="850" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A850" t="s">
+        <v>9</v>
+      </c>
+      <c r="D850" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E850" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F850" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G850" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H850" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I850" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J850" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K850">
+        <v>0</v>
+      </c>
+      <c r="L850" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="851" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A851" t="s">
+        <v>60</v>
+      </c>
+      <c r="D851" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E851" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F851" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G851" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H851" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I851" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J851" t="s">
+        <v>81</v>
+      </c>
+      <c r="K851">
+        <v>4</v>
+      </c>
+      <c r="L851" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="852" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A852" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B852" s="3"/>
+      <c r="C852" s="3"/>
+      <c r="D852" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E852" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F852" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G852" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H852" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I852" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J852" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K852">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="853" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A853" t="s">
+        <v>396</v>
+      </c>
+      <c r="D853" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E853" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F853" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G853" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H853" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I853" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J853" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K853">
+        <v>12</v>
+      </c>
+      <c r="M853" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="855" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A855" t="s">
+        <v>9</v>
+      </c>
+      <c r="D855" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E855" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F855" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G855" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H855" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I855" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J855" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A856" t="s">
+        <v>60</v>
+      </c>
+      <c r="D856" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E856" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F856" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G856" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H856" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I856" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J856" t="s">
+        <v>81</v>
+      </c>
+      <c r="K856">
+        <v>4</v>
+      </c>
+      <c r="L856" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="857" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A857" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B857" s="3"/>
+      <c r="C857" s="3"/>
+      <c r="D857" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E857" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F857" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G857" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H857" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I857" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J857" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K857">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="858" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A858" t="s">
+        <v>398</v>
+      </c>
+      <c r="D858" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E858" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F858" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G858" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H858" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I858" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J858" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K858">
+        <v>12</v>
+      </c>
+      <c r="M858" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="860" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A860" t="s">
+        <v>9</v>
+      </c>
+      <c r="D860" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E860" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F860" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G860" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H860" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I860" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J860" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A861" t="s">
+        <v>60</v>
+      </c>
+      <c r="D861" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E861" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F861" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G861" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H861" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I861" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J861" t="s">
+        <v>81</v>
+      </c>
+      <c r="K861">
+        <v>4</v>
+      </c>
+      <c r="L861" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="862" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A862" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B862" s="3"/>
+      <c r="C862" s="3"/>
+      <c r="D862" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E862" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F862" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G862" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H862" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I862" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J862" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K862">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="863" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A863" t="s">
+        <v>399</v>
+      </c>
+      <c r="D863" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E863" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F863" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G863" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H863" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I863" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J863" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="K863">
+        <v>12</v>
+      </c>
+      <c r="M863" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="867" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A867" t="s">
+        <v>9</v>
+      </c>
+      <c r="D867" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E867" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F867" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G867" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H867" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I867" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J867" t="s">
+        <v>74</v>
+      </c>
+      <c r="K867">
+        <v>0</v>
+      </c>
+      <c r="L867" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="868" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A868" t="s">
+        <v>60</v>
+      </c>
+      <c r="D868" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E868" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F868" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G868" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H868" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I868" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J868" t="s">
+        <v>81</v>
+      </c>
+      <c r="K868">
+        <v>4</v>
+      </c>
+      <c r="L868" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="869" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A869" t="s">
+        <v>61</v>
+      </c>
+      <c r="D869" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E869" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F869" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G869" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H869" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I869" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J869" t="s">
+        <v>83</v>
+      </c>
+      <c r="K869">
+        <v>8</v>
+      </c>
+      <c r="L869" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="870" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A870" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B870" s="3"/>
+      <c r="C870" s="3"/>
+      <c r="D870" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E870" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F870" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G870" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H870" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I870" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J870" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K870">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="871" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A871" t="s">
+        <v>406</v>
+      </c>
+      <c r="D871" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E871" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F871" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G871" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H871" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I871" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J871" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K871">
+        <v>16</v>
+      </c>
+      <c r="M871" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="873" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A873" t="s">
+        <v>9</v>
+      </c>
+      <c r="D873" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E873" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F873" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G873" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H873" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I873" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J873" t="s">
+        <v>74</v>
+      </c>
+      <c r="K873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A874" t="s">
+        <v>60</v>
+      </c>
+      <c r="D874" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E874" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F874" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G874" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H874" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I874" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J874" t="s">
+        <v>81</v>
+      </c>
+      <c r="K874">
+        <v>4</v>
+      </c>
+      <c r="L874" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="875" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A875" t="s">
+        <v>61</v>
+      </c>
+      <c r="D875" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E875" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F875" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G875" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H875" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I875" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J875" t="s">
+        <v>83</v>
+      </c>
+      <c r="K875">
+        <v>8</v>
+      </c>
+      <c r="L875" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="876" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A876" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B876" s="3"/>
+      <c r="C876" s="3"/>
+      <c r="D876" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E876" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F876" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G876" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H876" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I876" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J876" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K876">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="877" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A877" t="s">
+        <v>406</v>
+      </c>
+      <c r="D877" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E877" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F877" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G877" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H877" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I877" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J877" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K877">
+        <v>16</v>
+      </c>
+      <c r="M877" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="879" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A879" t="s">
+        <v>9</v>
+      </c>
+      <c r="D879" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E879" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F879" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G879" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H879" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I879" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J879" t="s">
+        <v>74</v>
+      </c>
+      <c r="K879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A880" t="s">
+        <v>60</v>
+      </c>
+      <c r="D880" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E880" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F880" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G880" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H880" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I880" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J880" t="s">
+        <v>81</v>
+      </c>
+      <c r="K880">
+        <v>4</v>
+      </c>
+      <c r="L880" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="881" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A881" t="s">
+        <v>61</v>
+      </c>
+      <c r="D881" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E881" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F881" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G881" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H881" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I881" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J881" t="s">
+        <v>83</v>
+      </c>
+      <c r="K881">
+        <v>8</v>
+      </c>
+      <c r="L881" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="882" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A882" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B882" s="3"/>
+      <c r="C882" s="3"/>
+      <c r="D882" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E882" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F882" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G882" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H882" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I882" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J882" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K882">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="883" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A883" t="s">
+        <v>406</v>
+      </c>
+      <c r="D883" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E883" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F883" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G883" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H883" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I883" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J883" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K883">
+        <v>16</v>
+      </c>
+      <c r="M883" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="887" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A887" t="s">
+        <v>9</v>
+      </c>
+      <c r="D887" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E887" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F887" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G887" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H887" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I887" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J887" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K887">
+        <v>0</v>
+      </c>
+      <c r="L887" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="888" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A888" t="s">
+        <v>24</v>
+      </c>
+      <c r="D888" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E888" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F888" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G888" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H888" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I888" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J888" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K888">
+        <v>4</v>
+      </c>
+      <c r="L888" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="889" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A889" t="s">
+        <v>30</v>
+      </c>
+      <c r="D889" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E889" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F889" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G889" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H889" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I889" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J889" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="K889">
+        <v>8</v>
+      </c>
+      <c r="L889" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="890" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A890" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B890" s="3"/>
+      <c r="C890" s="3"/>
+      <c r="D890" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E890" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F890" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G890" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H890" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I890" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J890" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K890">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="891" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A891" t="s">
+        <v>413</v>
+      </c>
+      <c r="D891" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E891" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F891" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G891" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H891" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I891" s="1">
+        <v>100011</v>
+      </c>
+      <c r="J891" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K891">
+        <v>16</v>
+      </c>
+      <c r="L891" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="892" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D892" s="3"/>
+      <c r="E892" s="3"/>
+      <c r="F892" s="3"/>
+      <c r="G892" s="3"/>
+      <c r="H892" s="3"/>
+      <c r="I892" s="3"/>
+      <c r="J892" s="3"/>
+    </row>
+    <row r="893" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A893" t="s">
+        <v>9</v>
+      </c>
+      <c r="D893" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E893" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F893" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G893" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H893" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I893" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J893" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A894" t="s">
+        <v>24</v>
+      </c>
+      <c r="D894" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E894" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F894" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G894" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H894" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I894" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J894" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K894">
+        <v>4</v>
+      </c>
+      <c r="L894" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="895" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A895" t="s">
+        <v>30</v>
+      </c>
+      <c r="D895" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E895" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F895" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G895" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H895" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I895" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J895" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="K895">
+        <v>8</v>
+      </c>
+      <c r="L895" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="896" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A896" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B896" s="3"/>
+      <c r="C896" s="3"/>
+      <c r="D896" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E896" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F896" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G896" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H896" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I896" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J896" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K896">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="897" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A897" t="s">
+        <v>413</v>
+      </c>
+      <c r="D897" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E897" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F897" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G897" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H897" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I897" s="1">
+        <v>100011</v>
+      </c>
+      <c r="J897" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K897">
+        <v>16</v>
+      </c>
+      <c r="L897" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="898" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D898" s="3"/>
+      <c r="E898" s="3"/>
+      <c r="F898" s="3"/>
+      <c r="G898" s="3"/>
+      <c r="H898" s="3"/>
+      <c r="I898" s="3"/>
+      <c r="J898" s="3"/>
+    </row>
+    <row r="899" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A899" t="s">
+        <v>9</v>
+      </c>
+      <c r="D899" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E899" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F899" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G899" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H899" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I899" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J899" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A900" t="s">
+        <v>24</v>
+      </c>
+      <c r="D900" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E900" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F900" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G900" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H900" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I900" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J900" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K900">
+        <v>4</v>
+      </c>
+      <c r="L900" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="901" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A901" t="s">
+        <v>30</v>
+      </c>
+      <c r="D901" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E901" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F901" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G901" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H901" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I901" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J901" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="K901">
+        <v>8</v>
+      </c>
+      <c r="L901" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="902" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A902" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B902" s="3"/>
+      <c r="C902" s="3"/>
+      <c r="D902" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E902" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F902" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G902" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H902" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I902" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J902" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K902">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="903" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A903" t="s">
+        <v>413</v>
+      </c>
+      <c r="D903" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E903" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F903" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G903" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H903" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I903" s="1">
+        <v>100011</v>
+      </c>
+      <c r="J903" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K903">
+        <v>16</v>
+      </c>
+      <c r="L903" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="907" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A907" t="s">
+        <v>9</v>
+      </c>
+      <c r="D907" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E907" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F907" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G907" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H907" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I907" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J907" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K907">
+        <v>0</v>
+      </c>
+      <c r="L907" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="908" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A908" t="s">
+        <v>60</v>
+      </c>
+      <c r="D908" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E908" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F908" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G908" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H908" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I908" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J908" t="s">
+        <v>81</v>
+      </c>
+      <c r="K908">
+        <v>4</v>
+      </c>
+      <c r="L908" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="909" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A909" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B909" s="3"/>
+      <c r="C909" s="3"/>
+      <c r="D909" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E909" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F909" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G909" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H909" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I909" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J909" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K909">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="910" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A910" t="s">
+        <v>417</v>
+      </c>
+      <c r="D910" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E910" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F910" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G910" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H910" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I910" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J910" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K910">
+        <v>12</v>
+      </c>
+      <c r="L910" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="912" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A912" t="s">
+        <v>9</v>
+      </c>
+      <c r="D912" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E912" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F912" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G912" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H912" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I912" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J912" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A913" t="s">
+        <v>60</v>
+      </c>
+      <c r="D913" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E913" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F913" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G913" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H913" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I913" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J913" t="s">
+        <v>81</v>
+      </c>
+      <c r="K913">
+        <v>4</v>
+      </c>
+      <c r="L913" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="914" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A914" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B914" s="3"/>
+      <c r="C914" s="3"/>
+      <c r="D914" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E914" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F914" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G914" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H914" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I914" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J914" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K914">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="915" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A915" t="s">
+        <v>417</v>
+      </c>
+      <c r="D915" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E915" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F915" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G915" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H915" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I915" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J915" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K915">
+        <v>12</v>
+      </c>
+      <c r="L915" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="919" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A919" t="s">
+        <v>9</v>
+      </c>
+      <c r="D919" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E919" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F919" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G919" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H919" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I919" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J919" t="s">
+        <v>74</v>
+      </c>
+      <c r="K919">
+        <v>0</v>
+      </c>
+      <c r="L919" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="920" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A920" t="s">
+        <v>60</v>
+      </c>
+      <c r="D920" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E920" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F920" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G920" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H920" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I920" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J920" t="s">
+        <v>81</v>
+      </c>
+      <c r="K920">
+        <v>4</v>
+      </c>
+      <c r="L920" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="921" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A921" t="s">
+        <v>61</v>
+      </c>
+      <c r="D921" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E921" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F921" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G921" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H921" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I921" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J921" t="s">
+        <v>83</v>
+      </c>
+      <c r="K921">
+        <v>8</v>
+      </c>
+      <c r="L921" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="922" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A922" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B922" s="3"/>
+      <c r="C922" s="3"/>
+      <c r="D922" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E922" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F922" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G922" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H922" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I922" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J922" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K922">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="923" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A923" t="s">
+        <v>422</v>
+      </c>
+      <c r="D923" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E923" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F923" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G923" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H923" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I923" s="1">
+        <v>100110</v>
+      </c>
+      <c r="J923" t="s">
+        <v>423</v>
+      </c>
+      <c r="K923">
+        <v>16</v>
+      </c>
+      <c r="L923" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="925" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A925" t="s">
+        <v>9</v>
+      </c>
+      <c r="D925" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E925" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F925" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G925" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H925" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I925" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J925" t="s">
+        <v>74</v>
+      </c>
+      <c r="K925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A926" t="s">
+        <v>60</v>
+      </c>
+      <c r="D926" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E926" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F926" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G926" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H926" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I926" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J926" t="s">
+        <v>81</v>
+      </c>
+      <c r="K926">
+        <v>4</v>
+      </c>
+      <c r="L926" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="927" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A927" t="s">
+        <v>61</v>
+      </c>
+      <c r="D927" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E927" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F927" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G927" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H927" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I927" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J927" t="s">
+        <v>83</v>
+      </c>
+      <c r="K927">
+        <v>8</v>
+      </c>
+      <c r="L927" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="928" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A928" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B928" s="3"/>
+      <c r="C928" s="3"/>
+      <c r="D928" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E928" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F928" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G928" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H928" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I928" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J928" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K928">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="929" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A929" t="s">
+        <v>422</v>
+      </c>
+      <c r="D929" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E929" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F929" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G929" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H929" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I929" s="1">
+        <v>100110</v>
+      </c>
+      <c r="J929" t="s">
+        <v>423</v>
+      </c>
+      <c r="K929">
+        <v>16</v>
+      </c>
+      <c r="L929" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="931" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A931" t="s">
+        <v>9</v>
+      </c>
+      <c r="D931" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E931" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F931" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G931" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H931" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I931" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J931" t="s">
+        <v>74</v>
+      </c>
+      <c r="K931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A932" t="s">
+        <v>60</v>
+      </c>
+      <c r="D932" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E932" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F932" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G932" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H932" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I932" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J932" t="s">
+        <v>81</v>
+      </c>
+      <c r="K932">
+        <v>4</v>
+      </c>
+      <c r="L932" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="933" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A933" t="s">
+        <v>61</v>
+      </c>
+      <c r="D933" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E933" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F933" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G933" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H933" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I933" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J933" t="s">
+        <v>83</v>
+      </c>
+      <c r="K933">
+        <v>8</v>
+      </c>
+      <c r="L933" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="934" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A934" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B934" s="3"/>
+      <c r="C934" s="3"/>
+      <c r="D934" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E934" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F934" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G934" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H934" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I934" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J934" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K934">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="935" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A935" t="s">
+        <v>422</v>
+      </c>
+      <c r="D935" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E935" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F935" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G935" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H935" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I935" s="1">
+        <v>100110</v>
+      </c>
+      <c r="J935" t="s">
+        <v>423</v>
+      </c>
+      <c r="K935">
+        <v>16</v>
+      </c>
+      <c r="L935" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="939" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A939" t="s">
+        <v>9</v>
+      </c>
+      <c r="D939" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E939" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F939" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G939" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H939" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I939" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J939" t="s">
+        <v>74</v>
+      </c>
+      <c r="K939">
+        <v>0</v>
+      </c>
+      <c r="L939" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="940" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A940" t="s">
+        <v>60</v>
+      </c>
+      <c r="D940" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E940" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F940" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G940" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H940" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I940" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J940" t="s">
+        <v>81</v>
+      </c>
+      <c r="K940">
+        <v>4</v>
+      </c>
+      <c r="L940" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="941" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A941" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B941" s="3"/>
+      <c r="C941" s="3"/>
+      <c r="D941" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E941" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F941" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G941" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H941" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I941" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J941" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K941">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="942" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A942" t="s">
+        <v>427</v>
+      </c>
+      <c r="D942" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E942" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F942" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G942" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H942" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I942" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J942" t="s">
+        <v>426</v>
+      </c>
+      <c r="K942">
+        <v>12</v>
+      </c>
+      <c r="L942" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="944" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A944" t="s">
+        <v>9</v>
+      </c>
+      <c r="D944" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E944" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F944" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G944" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H944" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I944" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J944" t="s">
+        <v>74</v>
+      </c>
+      <c r="K944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A945" t="s">
+        <v>60</v>
+      </c>
+      <c r="D945" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E945" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F945" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G945" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H945" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I945" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J945" t="s">
+        <v>81</v>
+      </c>
+      <c r="K945">
+        <v>4</v>
+      </c>
+      <c r="L945" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="946" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A946" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B946" s="3"/>
+      <c r="C946" s="3"/>
+      <c r="D946" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E946" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F946" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G946" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H946" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I946" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J946" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K946">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="947" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A947" t="s">
+        <v>427</v>
+      </c>
+      <c r="D947" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E947" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F947" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G947" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H947" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I947" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J947" t="s">
+        <v>426</v>
+      </c>
+      <c r="K947">
+        <v>12</v>
+      </c>
+      <c r="L947" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="949" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A949" t="s">
+        <v>9</v>
+      </c>
+      <c r="D949" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E949" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F949" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G949" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H949" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I949" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J949" t="s">
+        <v>74</v>
+      </c>
+      <c r="K949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A950" t="s">
+        <v>60</v>
+      </c>
+      <c r="D950" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E950" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F950" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G950" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H950" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I950" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J950" t="s">
+        <v>81</v>
+      </c>
+      <c r="K950">
+        <v>4</v>
+      </c>
+      <c r="L950" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="951" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A951" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B951" s="3"/>
+      <c r="C951" s="3"/>
+      <c r="D951" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E951" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F951" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G951" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H951" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I951" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J951" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K951">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="952" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A952" t="s">
+        <v>429</v>
+      </c>
+      <c r="D952" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E952" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F952" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G952" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H952" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I952" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J952" t="s">
+        <v>428</v>
+      </c>
+      <c r="K952">
+        <v>12</v>
+      </c>
+      <c r="L952" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/useful stuff/Testcases.xlsx
+++ b/useful stuff/Testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/402922083949ca98/Imperial/Y2_Term 1_2021-2022/Instruction Architecture and Compilers/Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Floro\Documents\GitHub\MIPS-CPU\useful stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1536" documentId="8_{34B2F3A4-241C-4223-93B0-01E82A0317BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{138C9BDA-1E4B-44F1-BEB7-D33ACD8DD9FB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51352BAB-67F0-48F2-A2C5-6EB98ED8F8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{56A8E61F-068C-4D18-B712-3333C0E957D7}"/>
   </bookViews>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ED3568-0F05-4937-8607-6989EFDB295E}">
   <dimension ref="A2:V952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A878" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U892" sqref="U892"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q412" sqref="Q412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22655,7 +22655,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="881" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A881" t="s">
         <v>61</v>
       </c>
@@ -22687,7 +22687,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="882" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A882" s="3" t="s">
         <v>20</v>
       </c>
@@ -22718,7 +22718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="883" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A883" t="s">
         <v>406</v>
       </c>
@@ -22750,7 +22750,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="887" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A887" t="s">
         <v>9</v>
       </c>
@@ -22782,7 +22782,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="888" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A888" t="s">
         <v>24</v>
       </c>
@@ -22814,7 +22814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="889" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A889" t="s">
         <v>30</v>
       </c>
@@ -22846,7 +22846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="890" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A890" s="3" t="s">
         <v>20</v>
       </c>
@@ -22877,7 +22877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="891" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A891" t="s">
         <v>413</v>
       </c>
@@ -22909,7 +22909,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="892" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D892" s="3"/>
       <c r="E892" s="3"/>
       <c r="F892" s="3"/>
@@ -22917,8 +22917,11 @@
       <c r="H892" s="3"/>
       <c r="I892" s="3"/>
       <c r="J892" s="3"/>
-    </row>
-    <row r="893" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="U892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A893" t="s">
         <v>9</v>
       </c>
@@ -22947,7 +22950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A894" t="s">
         <v>24</v>
       </c>
@@ -22979,7 +22982,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="895" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A895" t="s">
         <v>30</v>
       </c>
@@ -23011,7 +23014,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="896" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A896" s="3" t="s">
         <v>20</v>
       </c>
